--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -815,13 +815,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254679192"/>
-        <c:axId val="254676056"/>
+        <c:axId val="262071112"/>
+        <c:axId val="262072680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254679192"/>
+        <c:axId val="262071112"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
         </c:scaling>
@@ -943,13 +943,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254676056"/>
+        <c:crossAx val="262072680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254676056"/>
+        <c:axId val="262072680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -1063,7 +1062,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254679192"/>
+        <c:crossAx val="262071112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2032,18 +2031,18 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>98.1741068898462</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>96.797261716849803</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T8">
         <v>61.435083333333303</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T9">
         <v>60.059166666666698</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
@@ -815,14 +815,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262071112"/>
-        <c:axId val="262072680"/>
+        <c:axId val="244510912"/>
+        <c:axId val="244512872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262071112"/>
+        <c:axId val="244510912"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -850,10 +851,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -861,16 +859,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -892,10 +902,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -930,10 +937,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -943,12 +947,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262072680"/>
+        <c:crossAx val="244512872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262072680"/>
+        <c:axId val="244512872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -978,10 +982,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -989,7 +990,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>PSNR-HVS-M (dB)</a:t>
                 </a:r>
               </a:p>
@@ -1011,10 +1016,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1049,10 +1051,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1062,7 +1061,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262071112"/>
+        <c:crossAx val="244510912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,10 +1095,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2027,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_psnr.xlsx
@@ -815,16 +815,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244510912"/>
-        <c:axId val="244512872"/>
+        <c:axId val="272347776"/>
+        <c:axId val="272346600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244510912"/>
+        <c:axId val="272347776"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
-          <c:min val="50"/>
+          <c:max val="256"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -947,12 +947,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244512872"/>
+        <c:crossAx val="272346600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244512872"/>
+        <c:axId val="272346600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -1061,7 +1061,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244510912"/>
+        <c:crossAx val="272347776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,7 +1138,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
